--- a/biology/Zoologie/Louis_Bourget/Louis_Bourget.xlsx
+++ b/biology/Zoologie/Louis_Bourget/Louis_Bourget.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Bourget, de son nom complet Melchior-Matthieu-Adolphe-Louis Bourget, né le 22 mars 1856 à Yverdon-les-Bains et mort le 26 juillet 1913 à Lausanne, est un médecin, pharmacien et professeur de médecine et de pharmacie vaudois[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Bourget, de son nom complet Melchior-Matthieu-Adolphe-Louis Bourget, né le 22 mars 1856 à Yverdon-les-Bains et mort le 26 juillet 1913 à Lausanne, est un médecin, pharmacien et professeur de médecine et de pharmacie vaudois.
 </t>
         </is>
       </c>
@@ -513,13 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vie privée
-Originaire de Rivaz, il est le fils de Jules Bourget, enseignant à l'institut Naef pour enfants sourds, et de Marie Baud. Il a un frère, Marius, né en 1850, et une sœur, Emma, née en 1851. La famille Bourget déménage à Lausanne en 1861. Son père devient maître de classe à l'École moyenne en 1864. Louis Bourget épouse Augusta Hunziker et le couple aura deux filles : Valentine (1893) et Elisa-Marie (1895)[2],[3].
-Médecin et pharmacien
-Louis Bourget étudie la pharmacie à l'Académie de Lausanne, puis en Allemagne. Il est engagé comme pharmacien à l'Hôpital Cantonal de Genève puis tient une pharmacie à Martigny. Il entreprend ensuite des études de médecine à Genève, Strasbourg, Vienne et Paris. En 1884, il obtient son doctorat en médecine à Genève, puis y est nommé privat-docent en 1887. En 1890, il se voit confier l'enseignement de la thérapeutique à la nouvelle faculté de médecine de Lausanne. Il enseigne également la biologie et la chimie physiologique et pathologique à la faculté des sciences. Il devient en 1890 professeur extraordinaire - puis ordinaire en 1891 - de pharmacologie et de chimie physiologique à Lausanne. Il collabore à la création du laboratoire de chimie physiologique et de thérapeutique en 1891. Il occupe dès 1892 la chaire de clinique médicale et de pathologie interne et abandonne ses cours à la facultés des sciences[1],[2],[3]. 
-En juillet 1893, il ouvre une petite clinique. En 1905, il ouvre la clinique privée La Pensée à l'avenue d'Ouchy. En 1911, il se voue exclusivement à la médecine et quitte l'école de pharmacie. Il met au point un instrument d'auscultation cardiaque, participe à la lutte contre la tuberculose, fonde le Secrétariat antituberculeux et crée le liniment Bourget à base d'acide acétylsalicylique contre les rhumatismes et les poudres alcalines Bourget, efficaces contre certaines affections gastriques[1],[2].
-Ornithologue
-Passionné par l'observation de la nature, il est en outre ornithologue. Il lutte pour la protection des oiseaux et lance une initiative pour l'achat de nids artificiels à placer dans les parcs et au bord du lac. Il fait à sa mort un legs à la ville de Lausanne pour la création d'une réserve naturelle[1].
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire de Rivaz, il est le fils de Jules Bourget, enseignant à l'institut Naef pour enfants sourds, et de Marie Baud. Il a un frère, Marius, né en 1850, et une sœur, Emma, née en 1851. La famille Bourget déménage à Lausanne en 1861. Son père devient maître de classe à l'École moyenne en 1864. Louis Bourget épouse Augusta Hunziker et le couple aura deux filles : Valentine (1893) et Elisa-Marie (1895),.
 </t>
         </is>
       </c>
@@ -545,13 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hommages</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En 1920, le Conseil communal décide la création à Vidy, au bord du lac Léman, sur la rive gauche de la Chamberonne, d'un « parc naturel réservé aux plantations d'arbres et réserve ornithologique » ; il prendra le nom de parc Louis-Bourget. En 1941, son statut de réserve est confirmé et celle-ci est déclarée perpétuelle en 1950[1],[2].
-L'Hôpital cantonal de Lausanne disposait d'un « pavillon Bourget », démoli en 1976[2].
+          <t>Médecin et pharmacien</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Bourget étudie la pharmacie à l'Académie de Lausanne, puis en Allemagne. Il est engagé comme pharmacien à l'Hôpital Cantonal de Genève puis tient une pharmacie à Martigny. Il entreprend ensuite des études de médecine à Genève, Strasbourg, Vienne et Paris. En 1884, il obtient son doctorat en médecine à Genève, puis y est nommé privat-docent en 1887. En 1890, il se voit confier l'enseignement de la thérapeutique à la nouvelle faculté de médecine de Lausanne. Il enseigne également la biologie et la chimie physiologique et pathologique à la faculté des sciences. Il devient en 1890 professeur extraordinaire - puis ordinaire en 1891 - de pharmacologie et de chimie physiologique à Lausanne. Il collabore à la création du laboratoire de chimie physiologique et de thérapeutique en 1891. Il occupe dès 1892 la chaire de clinique médicale et de pathologie interne et abandonne ses cours à la facultés des sciences. 
+En juillet 1893, il ouvre une petite clinique. En 1905, il ouvre la clinique privée La Pensée à l'avenue d'Ouchy. En 1911, il se voue exclusivement à la médecine et quitte l'école de pharmacie. Il met au point un instrument d'auscultation cardiaque, participe à la lutte contre la tuberculose, fonde le Secrétariat antituberculeux et crée le liniment Bourget à base d'acide acétylsalicylique contre les rhumatismes et les poudres alcalines Bourget, efficaces contre certaines affections gastriques,.
 </t>
         </is>
       </c>
@@ -577,13 +595,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ornithologue</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Passionné par l'observation de la nature, il est en outre ornithologue. Il lutte pour la protection des oiseaux et lance une initiative pour l'achat de nids artificiels à placer dans les parcs et au bord du lac. Il fait à sa mort un legs à la ville de Lausanne pour la création d'une réserve naturelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Louis_Bourget</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Bourget</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1920, le Conseil communal décide la création à Vidy, au bord du lac Léman, sur la rive gauche de la Chamberonne, d'un « parc naturel réservé aux plantations d'arbres et réserve ornithologique » ; il prendra le nom de parc Louis-Bourget. En 1941, son statut de réserve est confirmé et celle-ci est déclarée perpétuelle en 1950,.
+L'Hôpital cantonal de Lausanne disposait d'un « pavillon Bourget », démoli en 1976.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Louis_Bourget</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Bourget</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1909 : Beaux dimanches : observations d'histoire naturelle
-1896 : Précis de thérapeutique[3]
+1896 : Précis de thérapeutique
 1907 : "quelques erreurs et tromperies de la science médicale moderne" edts Th. Sack- Reymond, lausanne</t>
         </is>
       </c>
